--- a/strategy/holida.xlsx
+++ b/strategy/holida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STOCK\Capital_vercel_new\strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2668BB38-88E6-43E7-AB9E-D0FE33994BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B747CF38-1A65-4836-BE97-287B66465D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/strategy/holida.xlsx
+++ b/strategy/holida.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STOCK\Capital_vercel_new\strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B747CF38-1A65-4836-BE97-287B66465D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C08D8D-097F-4EB3-ABBD-8FA1985CDFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/strategy/holida.xlsx
+++ b/strategy/holida.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STOCK\Capital_vercel_new\strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C08D8D-097F-4EB3-ABBD-8FA1985CDFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EED563A-72DE-419C-BDB2-280EEC78500F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Thursday</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Date1</t>
+  </si>
+  <si>
+    <t>Ram Mandir Prathistha</t>
   </si>
 </sst>
 </file>
@@ -508,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -541,208 +544,222 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
+        <v>44948</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>44952</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44992</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44992</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45015</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45015</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45020</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45020</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45023</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>45030</v>
+        <v>45023</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>45047</v>
+        <v>45030</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45047</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>45106</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>45153</v>
+        <v>45106</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>45188</v>
+        <v>45153</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45188</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45201</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45201</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45223</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>45244</v>
+        <v>45223</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>45257</v>
+        <v>45244</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>45285</v>
+        <v>45257</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45285</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>14</v>
       </c>
     </row>

--- a/strategy/holida.xlsx
+++ b/strategy/holida.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STOCK\Capital_vercel_new\strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EED563A-72DE-419C-BDB2-280EEC78500F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CEC11C-571C-4E21-8EEF-19B835428B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Thursday</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Date1</t>
-  </si>
-  <si>
-    <t>Ram Mandir Prathistha</t>
   </si>
 </sst>
 </file>
@@ -511,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -544,222 +541,208 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>44948</v>
+        <v>44952</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>44952</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="1">
+        <v>44992</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45015</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44992</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45015</v>
+        <v>45020</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>4</v>
+      <c r="A6" s="3">
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45020</v>
+        <v>45023</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
       <c r="B8" s="1">
-        <v>45030</v>
+        <v>45047</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>45047</v>
+        <v>45106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
       <c r="B10" s="1">
-        <v>45106</v>
+        <v>45153</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>45153</v>
+        <v>45188</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>10</v>
+      <c r="A12" s="3">
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>45188</v>
+        <v>45201</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>45201</v>
+        <v>45223</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>12</v>
+      <c r="A14" s="3">
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>45223</v>
+        <v>45244</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>45244</v>
+        <v>45257</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>14</v>
+      <c r="A16" s="3">
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>45257</v>
+        <v>45285</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>45285</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="8" t="s">
         <v>14</v>
       </c>
     </row>
